--- a/Arduino/remote codes.xlsx
+++ b/Arduino/remote codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leefer_feefer/Desktop/Apps/Bluetooth Practice/Arduino/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leefer_feefer/Desktop/Apps/Ultra Universal Remote/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -84,8 +84,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -94,11 +96,13 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -374,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -386,12 +390,12 @@
     <col min="6" max="6" width="20.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>13232</v>
       </c>
@@ -412,8 +416,12 @@
         <f>"pulseIR(" &amp; C3 &amp; ");"</f>
         <v>pulseIR(9420);</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H3" t="str">
+        <f>","&amp;A3&amp;","&amp;C3</f>
+        <v>,13232,9420</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>4540</v>
       </c>
@@ -434,8 +442,12 @@
         <f t="shared" ref="F4:F40" si="1">"pulseIR(" &amp; C4 &amp; ");"</f>
         <v>pulseIR(640);</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H67" si="2">","&amp;A4&amp;","&amp;C4</f>
+        <v>,4540,640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>520</v>
       </c>
@@ -456,8 +468,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(640);</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>,520,640</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1640</v>
       </c>
@@ -478,8 +494,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(640);</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>,1640,640</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1640</v>
       </c>
@@ -500,8 +520,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(640);</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>,1640,640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1660</v>
       </c>
@@ -522,8 +546,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(640);</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>500</v>
       </c>
@@ -544,8 +572,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>,500,620</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1680</v>
       </c>
@@ -566,8 +598,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1660</v>
       </c>
@@ -588,8 +624,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1660</v>
       </c>
@@ -610,8 +650,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1660</v>
       </c>
@@ -632,8 +676,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1680</v>
       </c>
@@ -654,8 +702,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1660</v>
       </c>
@@ -676,8 +728,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>540</v>
       </c>
@@ -698,8 +754,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,600</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>540</v>
       </c>
@@ -720,8 +780,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>540</v>
       </c>
@@ -742,8 +806,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>540</v>
       </c>
@@ -764,8 +832,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1680</v>
       </c>
@@ -786,8 +858,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1660</v>
       </c>
@@ -808,8 +884,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1660</v>
       </c>
@@ -830,8 +910,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1680</v>
       </c>
@@ -852,8 +936,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1680</v>
       </c>
@@ -874,8 +962,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1680</v>
       </c>
@@ -896,8 +988,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H25" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>540</v>
       </c>
@@ -918,8 +1014,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H26" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1660</v>
       </c>
@@ -940,8 +1040,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H27" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>540</v>
       </c>
@@ -962,8 +1066,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H28" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>520</v>
       </c>
@@ -984,8 +1092,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H29" t="str">
+        <f t="shared" si="2"/>
+        <v>,520,620</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1680</v>
       </c>
@@ -1006,8 +1118,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H30" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,600</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1680</v>
       </c>
@@ -1028,8 +1144,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H31" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>540</v>
       </c>
@@ -1050,8 +1170,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H32" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1660</v>
       </c>
@@ -1072,8 +1196,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H33" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>540</v>
       </c>
@@ -1094,8 +1222,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H34" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1660</v>
       </c>
@@ -1116,8 +1248,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H35" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1680</v>
       </c>
@@ -1138,8 +1274,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H36" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34860</v>
       </c>
@@ -1160,8 +1300,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(9340);</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H37" t="str">
+        <f t="shared" si="2"/>
+        <v>,34860,9340</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>4560</v>
       </c>
@@ -1182,8 +1326,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(620);</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H38" t="str">
+        <f t="shared" si="2"/>
+        <v>,4560,620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>540</v>
       </c>
@@ -1204,8 +1352,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H39" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,600</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1680</v>
       </c>
@@ -1226,8 +1378,12 @@
         <f t="shared" si="1"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H40" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1680</v>
       </c>
@@ -1241,15 +1397,19 @@
         <v>2</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" ref="E41:E70" si="2">"delayMicroseconds(" &amp; A41 &amp; ");"</f>
+        <f t="shared" ref="E41:E70" si="3">"delayMicroseconds(" &amp; A41 &amp; ");"</f>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F41" t="str">
-        <f t="shared" ref="F41:F70" si="3">"pulseIR(" &amp; C41 &amp; ");"</f>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F41:F70" si="4">"pulseIR(" &amp; C41 &amp; ");"</f>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1680</v>
       </c>
@@ -1263,15 +1423,19 @@
         <v>2</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F42" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H42" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>540</v>
       </c>
@@ -1285,15 +1449,19 @@
         <v>2</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F43" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1660</v>
       </c>
@@ -1307,15 +1475,19 @@
         <v>2</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1660);</v>
       </c>
       <c r="F44" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1680</v>
       </c>
@@ -1329,15 +1501,19 @@
         <v>2</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F45" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1660</v>
       </c>
@@ -1351,15 +1527,19 @@
         <v>2</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1660);</v>
       </c>
       <c r="F46" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1660</v>
       </c>
@@ -1373,15 +1553,19 @@
         <v>2</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1660);</v>
       </c>
       <c r="F47" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1680</v>
       </c>
@@ -1395,15 +1579,19 @@
         <v>2</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F48" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H48" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1680</v>
       </c>
@@ -1417,15 +1605,19 @@
         <v>2</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F49" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>520</v>
       </c>
@@ -1439,15 +1631,19 @@
         <v>2</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(520);</v>
       </c>
       <c r="F50" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="2"/>
+        <v>,520,620</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>540</v>
       </c>
@@ -1461,15 +1657,19 @@
         <v>2</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F51" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>540</v>
       </c>
@@ -1483,15 +1683,19 @@
         <v>2</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F52" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>520</v>
       </c>
@@ -1505,15 +1709,19 @@
         <v>2</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(520);</v>
       </c>
       <c r="F53" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="2"/>
+        <v>,520,620</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1680</v>
       </c>
@@ -1527,15 +1735,19 @@
         <v>2</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F54" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H54" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1680</v>
       </c>
@@ -1549,15 +1761,19 @@
         <v>2</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F55" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>540</v>
       </c>
@@ -1571,15 +1787,19 @@
         <v>2</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F56" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H56" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1680</v>
       </c>
@@ -1593,15 +1813,19 @@
         <v>2</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F57" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>520</v>
       </c>
@@ -1615,15 +1839,19 @@
         <v>2</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(520);</v>
       </c>
       <c r="F58" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="2"/>
+        <v>,520,620</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>540</v>
       </c>
@@ -1637,15 +1865,19 @@
         <v>2</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F59" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>540</v>
       </c>
@@ -1659,15 +1891,19 @@
         <v>2</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F60" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>520</v>
       </c>
@@ -1681,15 +1917,19 @@
         <v>2</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(520);</v>
       </c>
       <c r="F61" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="2"/>
+        <v>,520,620</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>540</v>
       </c>
@@ -1703,15 +1943,19 @@
         <v>2</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F62" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H62" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>540</v>
       </c>
@@ -1725,15 +1969,19 @@
         <v>2</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F63" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>pulseIR(600);</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H63" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1680</v>
       </c>
@@ -1747,15 +1995,19 @@
         <v>2</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F64" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H64" t="str">
+        <f t="shared" si="2"/>
+        <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1660</v>
       </c>
@@ -1769,15 +2021,19 @@
         <v>2</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1660);</v>
       </c>
       <c r="F65" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H65" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>540</v>
       </c>
@@ -1791,15 +2047,19 @@
         <v>2</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F66" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H66" t="str">
+        <f t="shared" si="2"/>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1660</v>
       </c>
@@ -1813,15 +2073,19 @@
         <v>2</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1660);</v>
       </c>
       <c r="F67" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H67" t="str">
+        <f t="shared" si="2"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>540</v>
       </c>
@@ -1835,15 +2099,19 @@
         <v>2</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(540);</v>
       </c>
       <c r="F68" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H68" t="str">
+        <f t="shared" ref="H68:H70" si="5">","&amp;A68&amp;","&amp;C68</f>
+        <v>,540,620</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1660</v>
       </c>
@@ -1857,15 +2125,19 @@
         <v>2</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1660);</v>
       </c>
       <c r="F69" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H69" t="str">
+        <f t="shared" si="5"/>
+        <v>,1660,620</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1680</v>
       </c>
@@ -1879,12 +2151,16 @@
         <v>2</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F70" t="str">
-        <f t="shared" si="3"/>
-        <v>pulseIR(620);</v>
+        <f t="shared" si="4"/>
+        <v>pulseIR(620);</v>
+      </c>
+      <c r="H70" t="str">
+        <f t="shared" si="5"/>
+        <v>,1680,620</v>
       </c>
     </row>
   </sheetData>

--- a/Arduino/remote codes.xlsx
+++ b/Arduino/remote codes.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="3">
   <si>
     <t>ON/OFF</t>
   </si>
@@ -84,8 +84,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -96,13 +98,15 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,10 +382,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="H3" sqref="H3:H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -397,7 +401,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>13232</v>
+        <v>31648</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -410,7 +414,7 @@
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E40" si="0">"delayMicroseconds(" &amp; A3 &amp; ");"</f>
-        <v>delayMicroseconds(13232);</v>
+        <v>delayMicroseconds(31648);</v>
       </c>
       <c r="F3" t="str">
         <f>"pulseIR(" &amp; C3 &amp; ");"</f>
@@ -418,12 +422,12 @@
       </c>
       <c r="H3" t="str">
         <f>","&amp;A3&amp;","&amp;C3</f>
-        <v>,13232,9420</v>
+        <v>,31648,9420</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>4540</v>
+        <v>4520</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -436,7 +440,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(4540);</v>
+        <v>delayMicroseconds(4520);</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" ref="F4:F40" si="1">"pulseIR(" &amp; C4 &amp; ");"</f>
@@ -444,7 +448,7 @@
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H67" si="2">","&amp;A4&amp;","&amp;C4</f>
-        <v>,4540,640</v>
+        <v>,4520,640</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -501,80 +505,80 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1640</v>
+        <v>1660</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>640</v>
+        <v>600</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1640);</v>
+        <v>delayMicroseconds(1660);</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(640);</v>
+        <v>pulseIR(600);</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="2"/>
-        <v>,1640,640</v>
+        <v>,1660,600</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1660);</v>
+        <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(640);</v>
+        <v>pulseIR(620);</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="2"/>
-        <v>,1660,640</v>
+        <v>,1680,620</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>500</v>
+        <v>540</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
       </c>
       <c r="C9">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(500);</v>
+        <v>delayMicroseconds(540);</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(620);</v>
+        <v>pulseIR(600);</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="2"/>
-        <v>,500,620</v>
+        <v>,540,600</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -657,28 +661,28 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1660);</v>
+        <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(620);</v>
+        <v>pulseIR(600);</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="2"/>
-        <v>,1660,620</v>
+        <v>,1680,600</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -741,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -752,16 +756,16 @@
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(600);</v>
+        <v>pulseIR(620);</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="2"/>
-        <v>,540,600</v>
+        <v>,540,620</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -774,7 +778,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(540);</v>
+        <v>delayMicroseconds(520);</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
@@ -782,7 +786,7 @@
       </c>
       <c r="H17" t="str">
         <f t="shared" si="2"/>
-        <v>,540,620</v>
+        <v>,520,620</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -845,7 +849,7 @@
         <v>1</v>
       </c>
       <c r="C20">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -856,16 +860,16 @@
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(620);</v>
+        <v>pulseIR(600);</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="2"/>
-        <v>,1680,620</v>
+        <v>,1680,600</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -878,7 +882,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1660);</v>
+        <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -886,111 +890,111 @@
       </c>
       <c r="H21" t="str">
         <f t="shared" si="2"/>
-        <v>,1660,620</v>
+        <v>,1680,620</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D22" t="s">
         <v>2</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1660);</v>
+        <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(620);</v>
+        <v>pulseIR(600);</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="2"/>
-        <v>,1660,620</v>
+        <v>,1680,600</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>1680</v>
+        <v>540</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1680);</v>
+        <v>delayMicroseconds(540);</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(600);</v>
+        <v>pulseIR(620);</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="2"/>
-        <v>,1680,600</v>
+        <v>,540,620</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>1680</v>
+        <v>540</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D24" t="s">
         <v>2</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1680);</v>
+        <v>delayMicroseconds(540);</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(620);</v>
+        <v>pulseIR(600);</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="2"/>
-        <v>,1680,620</v>
+        <v>,540,600</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>1680</v>
+        <v>540</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="D25" t="s">
         <v>2</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1680);</v>
+        <v>delayMicroseconds(540);</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(600);</v>
+        <v>pulseIR(620);</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="2"/>
-        <v>,1680,600</v>
+        <v>,540,620</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1021,7 +1025,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>1660</v>
+        <v>520</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -1034,7 +1038,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1660);</v>
+        <v>delayMicroseconds(520);</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="1"/>
@@ -1042,7 +1046,7 @@
       </c>
       <c r="H27" t="str">
         <f t="shared" si="2"/>
-        <v>,1660,620</v>
+        <v>,520,620</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1073,28 +1077,28 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D29" t="s">
         <v>2</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(520);</v>
+        <v>delayMicroseconds(540);</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(620);</v>
+        <v>pulseIR(600);</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="2"/>
-        <v>,520,620</v>
+        <v>,540,600</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1105,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C30">
-        <v>600</v>
+        <v>620</v>
       </c>
       <c r="D30" t="s">
         <v>2</v>
@@ -1116,16 +1120,16 @@
       </c>
       <c r="F30" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(600);</v>
+        <v>pulseIR(620);</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="2"/>
-        <v>,1680,600</v>
+        <v>,1680,620</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1680</v>
+        <v>1660</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -1138,7 +1142,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1680);</v>
+        <v>delayMicroseconds(1660);</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="1"/>
@@ -1146,7 +1150,7 @@
       </c>
       <c r="H31" t="str">
         <f t="shared" si="2"/>
-        <v>,1680,620</v>
+        <v>,1660,620</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="C34">
-        <v>620</v>
+        <v>600</v>
       </c>
       <c r="D34" t="s">
         <v>2</v>
@@ -1220,16 +1224,16 @@
       </c>
       <c r="F34" t="str">
         <f t="shared" si="1"/>
-        <v>pulseIR(620);</v>
+        <v>pulseIR(600);</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="2"/>
-        <v>,540,620</v>
+        <v>,540,600</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1660</v>
+        <v>1680</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -1242,7 +1246,7 @@
       </c>
       <c r="E35" t="str">
         <f t="shared" si="0"/>
-        <v>delayMicroseconds(1660);</v>
+        <v>delayMicroseconds(1680);</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="1"/>
@@ -1250,7 +1254,7 @@
       </c>
       <c r="H35" t="str">
         <f t="shared" si="2"/>
-        <v>,1660,620</v>
+        <v>,1680,620</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1276,890 +1280,6 @@
       </c>
       <c r="H36" t="str">
         <f t="shared" si="2"/>
-        <v>,1680,620</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>34860</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>9340</v>
-      </c>
-      <c r="D37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" t="str">
-        <f t="shared" si="0"/>
-        <v>delayMicroseconds(34860);</v>
-      </c>
-      <c r="F37" t="str">
-        <f t="shared" si="1"/>
-        <v>pulseIR(9340);</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="2"/>
-        <v>,34860,9340</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>4560</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>620</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" t="str">
-        <f t="shared" si="0"/>
-        <v>delayMicroseconds(4560);</v>
-      </c>
-      <c r="F38" t="str">
-        <f t="shared" si="1"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="2"/>
-        <v>,4560,620</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>540</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>600</v>
-      </c>
-      <c r="D39" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" t="str">
-        <f t="shared" si="0"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F39" t="str">
-        <f t="shared" si="1"/>
-        <v>pulseIR(600);</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,600</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>1680</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>600</v>
-      </c>
-      <c r="D40" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" t="str">
-        <f t="shared" si="0"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F40" t="str">
-        <f t="shared" si="1"/>
-        <v>pulseIR(600);</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,600</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41">
-        <v>1680</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>620</v>
-      </c>
-      <c r="D41" t="s">
-        <v>2</v>
-      </c>
-      <c r="E41" t="str">
-        <f t="shared" ref="E41:E70" si="3">"delayMicroseconds(" &amp; A41 &amp; ");"</f>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F41" t="str">
-        <f t="shared" ref="F41:F70" si="4">"pulseIR(" &amp; C41 &amp; ");"</f>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,620</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42">
-        <v>1680</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>600</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2</v>
-      </c>
-      <c r="E42" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F42" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(600);</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,600</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43">
-        <v>540</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>620</v>
-      </c>
-      <c r="D43" t="s">
-        <v>2</v>
-      </c>
-      <c r="E43" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F43" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,620</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44">
-        <v>1660</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>620</v>
-      </c>
-      <c r="D44" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1660);</v>
-      </c>
-      <c r="F44" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="2"/>
-        <v>,1660,620</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45">
-        <v>1680</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>620</v>
-      </c>
-      <c r="D45" t="s">
-        <v>2</v>
-      </c>
-      <c r="E45" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F45" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,620</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46">
-        <v>1660</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>620</v>
-      </c>
-      <c r="D46" t="s">
-        <v>2</v>
-      </c>
-      <c r="E46" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1660);</v>
-      </c>
-      <c r="F46" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="2"/>
-        <v>,1660,620</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47">
-        <v>1660</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>620</v>
-      </c>
-      <c r="D47" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1660);</v>
-      </c>
-      <c r="F47" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="2"/>
-        <v>,1660,620</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48">
-        <v>1680</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>600</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F48" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(600);</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,600</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49">
-        <v>1680</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>620</v>
-      </c>
-      <c r="D49" t="s">
-        <v>2</v>
-      </c>
-      <c r="E49" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F49" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H49" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,620</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50">
-        <v>520</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>620</v>
-      </c>
-      <c r="D50" t="s">
-        <v>2</v>
-      </c>
-      <c r="E50" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(520);</v>
-      </c>
-      <c r="F50" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H50" t="str">
-        <f t="shared" si="2"/>
-        <v>,520,620</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51">
-        <v>540</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>620</v>
-      </c>
-      <c r="D51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E51" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F51" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H51" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,620</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52">
-        <v>540</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>620</v>
-      </c>
-      <c r="D52" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F52" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H52" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,620</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A53">
-        <v>520</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>620</v>
-      </c>
-      <c r="D53" t="s">
-        <v>2</v>
-      </c>
-      <c r="E53" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(520);</v>
-      </c>
-      <c r="F53" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H53" t="str">
-        <f t="shared" si="2"/>
-        <v>,520,620</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54">
-        <v>1680</v>
-      </c>
-      <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54">
-        <v>600</v>
-      </c>
-      <c r="D54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F54" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(600);</v>
-      </c>
-      <c r="H54" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,600</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55">
-        <v>1680</v>
-      </c>
-      <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55">
-        <v>620</v>
-      </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F55" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H55" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,620</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A56">
-        <v>540</v>
-      </c>
-      <c r="B56" t="s">
-        <v>1</v>
-      </c>
-      <c r="C56">
-        <v>600</v>
-      </c>
-      <c r="D56" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F56" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(600);</v>
-      </c>
-      <c r="H56" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,600</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57">
-        <v>1680</v>
-      </c>
-      <c r="B57" t="s">
-        <v>1</v>
-      </c>
-      <c r="C57">
-        <v>620</v>
-      </c>
-      <c r="D57" t="s">
-        <v>2</v>
-      </c>
-      <c r="E57" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F57" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H57" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,620</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A58">
-        <v>520</v>
-      </c>
-      <c r="B58" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58">
-        <v>620</v>
-      </c>
-      <c r="D58" t="s">
-        <v>2</v>
-      </c>
-      <c r="E58" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(520);</v>
-      </c>
-      <c r="F58" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H58" t="str">
-        <f t="shared" si="2"/>
-        <v>,520,620</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59">
-        <v>540</v>
-      </c>
-      <c r="B59" t="s">
-        <v>1</v>
-      </c>
-      <c r="C59">
-        <v>620</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-      <c r="E59" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F59" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H59" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,620</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60">
-        <v>540</v>
-      </c>
-      <c r="B60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C60">
-        <v>620</v>
-      </c>
-      <c r="D60" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F60" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H60" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,620</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61">
-        <v>520</v>
-      </c>
-      <c r="B61" t="s">
-        <v>1</v>
-      </c>
-      <c r="C61">
-        <v>620</v>
-      </c>
-      <c r="D61" t="s">
-        <v>2</v>
-      </c>
-      <c r="E61" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(520);</v>
-      </c>
-      <c r="F61" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H61" t="str">
-        <f t="shared" si="2"/>
-        <v>,520,620</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62">
-        <v>540</v>
-      </c>
-      <c r="B62" t="s">
-        <v>1</v>
-      </c>
-      <c r="C62">
-        <v>620</v>
-      </c>
-      <c r="D62" t="s">
-        <v>2</v>
-      </c>
-      <c r="E62" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F62" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H62" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,620</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A63">
-        <v>540</v>
-      </c>
-      <c r="B63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>600</v>
-      </c>
-      <c r="D63" t="s">
-        <v>2</v>
-      </c>
-      <c r="E63" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F63" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(600);</v>
-      </c>
-      <c r="H63" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,600</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A64">
-        <v>1680</v>
-      </c>
-      <c r="B64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C64">
-        <v>620</v>
-      </c>
-      <c r="D64" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F64" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H64" t="str">
-        <f t="shared" si="2"/>
-        <v>,1680,620</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A65">
-        <v>1660</v>
-      </c>
-      <c r="B65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C65">
-        <v>620</v>
-      </c>
-      <c r="D65" t="s">
-        <v>2</v>
-      </c>
-      <c r="E65" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1660);</v>
-      </c>
-      <c r="F65" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H65" t="str">
-        <f t="shared" si="2"/>
-        <v>,1660,620</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A66">
-        <v>540</v>
-      </c>
-      <c r="B66" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66">
-        <v>620</v>
-      </c>
-      <c r="D66" t="s">
-        <v>2</v>
-      </c>
-      <c r="E66" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F66" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H66" t="str">
-        <f t="shared" si="2"/>
-        <v>,540,620</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A67">
-        <v>1660</v>
-      </c>
-      <c r="B67" t="s">
-        <v>1</v>
-      </c>
-      <c r="C67">
-        <v>620</v>
-      </c>
-      <c r="D67" t="s">
-        <v>2</v>
-      </c>
-      <c r="E67" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1660);</v>
-      </c>
-      <c r="F67" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H67" t="str">
-        <f t="shared" si="2"/>
-        <v>,1660,620</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68">
-        <v>540</v>
-      </c>
-      <c r="B68" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>620</v>
-      </c>
-      <c r="D68" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(540);</v>
-      </c>
-      <c r="F68" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H68" t="str">
-        <f t="shared" ref="H68:H70" si="5">","&amp;A68&amp;","&amp;C68</f>
-        <v>,540,620</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A69">
-        <v>1660</v>
-      </c>
-      <c r="B69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C69">
-        <v>620</v>
-      </c>
-      <c r="D69" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1660);</v>
-      </c>
-      <c r="F69" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H69" t="str">
-        <f t="shared" si="5"/>
-        <v>,1660,620</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A70">
-        <v>1680</v>
-      </c>
-      <c r="B70" t="s">
-        <v>1</v>
-      </c>
-      <c r="C70">
-        <v>620</v>
-      </c>
-      <c r="D70" t="s">
-        <v>2</v>
-      </c>
-      <c r="E70" t="str">
-        <f t="shared" si="3"/>
-        <v>delayMicroseconds(1680);</v>
-      </c>
-      <c r="F70" t="str">
-        <f t="shared" si="4"/>
-        <v>pulseIR(620);</v>
-      </c>
-      <c r="H70" t="str">
-        <f t="shared" si="5"/>
         <v>,1680,620</v>
       </c>
     </row>

--- a/Arduino/remote codes.xlsx
+++ b/Arduino/remote codes.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="33">
   <si>
     <t>ON/OFF</t>
   </si>
@@ -36,6 +36,96 @@
   </si>
   <si>
     <t>usec</t>
+  </si>
+  <si>
+    <t>9420,</t>
+  </si>
+  <si>
+    <t>4540,</t>
+  </si>
+  <si>
+    <t>640,</t>
+  </si>
+  <si>
+    <t>500,</t>
+  </si>
+  <si>
+    <t>1660,</t>
+  </si>
+  <si>
+    <t>1640,</t>
+  </si>
+  <si>
+    <t>520,</t>
+  </si>
+  <si>
+    <t>620,</t>
+  </si>
+  <si>
+    <t>@4540,@640,</t>
+  </si>
+  <si>
+    <t>@1660,@640,</t>
+  </si>
+  <si>
+    <t>@1640,@640,</t>
+  </si>
+  <si>
+    <t>@520,@640,</t>
+  </si>
+  <si>
+    <t>@520,@620,</t>
+  </si>
+  <si>
+    <t>1680,</t>
+  </si>
+  <si>
+    <t>600,</t>
+  </si>
+  <si>
+    <t>540,</t>
+  </si>
+  <si>
+    <t>@1660,@620,</t>
+  </si>
+  <si>
+    <t>@1680,@620,</t>
+  </si>
+  <si>
+    <t>@1680,@600,</t>
+  </si>
+  <si>
+    <t>@540,@620,</t>
+  </si>
+  <si>
+    <t>@540,@600,</t>
+  </si>
+  <si>
+    <t>9340,</t>
+  </si>
+  <si>
+    <t>4560,</t>
+  </si>
+  <si>
+    <t>@4560,@620,</t>
+  </si>
+  <si>
+    <t>13232,</t>
+  </si>
+  <si>
+    <t>34860,</t>
+  </si>
+  <si>
+    <t>@13232,@9420,</t>
+  </si>
+  <si>
+    <t>@500,@620,</t>
+  </si>
+  <si>
+    <t>@34860,@9340,</t>
+  </si>
+  <si>
+    <t>@1680,@620</t>
   </si>
 </sst>
 </file>
@@ -382,14 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:BT106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:BT39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="10.83203125" customWidth="1"/>
     <col min="5" max="5" width="24.83203125" customWidth="1"/>
     <col min="6" max="6" width="20.1640625" customWidth="1"/>
   </cols>
@@ -413,7 +504,7 @@
         <v>2</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E40" si="0">"delayMicroseconds(" &amp; A3 &amp; ");"</f>
+        <f t="shared" ref="E3:E36" si="0">"delayMicroseconds(" &amp; A3 &amp; ");"</f>
         <v>delayMicroseconds(31648);</v>
       </c>
       <c r="F3" t="str">
@@ -443,11 +534,11 @@
         <v>delayMicroseconds(4520);</v>
       </c>
       <c r="F4" t="str">
-        <f t="shared" ref="F4:F40" si="1">"pulseIR(" &amp; C4 &amp; ");"</f>
+        <f t="shared" ref="F4:F36" si="1">"pulseIR(" &amp; C4 &amp; ");"</f>
         <v>pulseIR(640);</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H67" si="2">","&amp;A4&amp;","&amp;C4</f>
+        <f t="shared" ref="H4:H36" si="2">","&amp;A4&amp;","&amp;C4</f>
         <v>,4520,640</v>
       </c>
     </row>
@@ -1179,7 +1270,7 @@
         <v>,540,620</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1660</v>
       </c>
@@ -1205,7 +1296,7 @@
         <v>,1660,620</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>540</v>
       </c>
@@ -1231,7 +1322,7 @@
         <v>,540,600</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1680</v>
       </c>
@@ -1257,7 +1348,7 @@
         <v>,1680,620</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:72" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1680</v>
       </c>
@@ -1281,6 +1372,1230 @@
       <c r="H36" t="str">
         <f t="shared" si="2"/>
         <v>,1680,620</v>
+      </c>
+    </row>
+    <row r="39" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="str">
+        <f>"@"&amp;A39&amp;"@"&amp;B39</f>
+        <v>@13232,@9420,</v>
+      </c>
+      <c r="D39" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>13</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" t="s">
+        <v>12</v>
+      </c>
+      <c r="K39" t="s">
+        <v>30</v>
+      </c>
+      <c r="L39" t="s">
+        <v>20</v>
+      </c>
+      <c r="M39" t="s">
+        <v>19</v>
+      </c>
+      <c r="N39" t="s">
+        <v>19</v>
+      </c>
+      <c r="O39" t="s">
+        <v>19</v>
+      </c>
+      <c r="P39" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>19</v>
+      </c>
+      <c r="R39" t="s">
+        <v>23</v>
+      </c>
+      <c r="S39" t="s">
+        <v>22</v>
+      </c>
+      <c r="T39" t="s">
+        <v>22</v>
+      </c>
+      <c r="U39" t="s">
+        <v>23</v>
+      </c>
+      <c r="V39" t="s">
+        <v>20</v>
+      </c>
+      <c r="W39" t="s">
+        <v>19</v>
+      </c>
+      <c r="X39" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>15</v>
+      </c>
+      <c r="AF39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AL39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AM39" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO39" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AQ39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AW39" t="s">
+        <v>19</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>21</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC39" t="s">
+        <v>15</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>20</v>
+      </c>
+      <c r="BF39" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG39" t="s">
+        <v>20</v>
+      </c>
+      <c r="BH39" t="s">
+        <v>15</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK39" t="s">
+        <v>15</v>
+      </c>
+      <c r="BL39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM39" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN39" t="s">
+        <v>20</v>
+      </c>
+      <c r="BO39" t="s">
+        <v>19</v>
+      </c>
+      <c r="BP39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BQ39" t="s">
+        <v>19</v>
+      </c>
+      <c r="BR39" t="s">
+        <v>22</v>
+      </c>
+      <c r="BS39" t="s">
+        <v>19</v>
+      </c>
+      <c r="BT39" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="str">
+        <f t="shared" ref="C40:C103" si="3">"@"&amp;A40&amp;"@"&amp;B40</f>
+        <v>@4540,@640,</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>9</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="str">
+        <f t="shared" si="3"/>
+        <v>@520,@640,</v>
+      </c>
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" t="str">
+        <f t="shared" si="3"/>
+        <v>@1640,@640,</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="43" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="str">
+        <f t="shared" si="3"/>
+        <v>@1640,@640,</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@640,</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" t="str">
+        <f t="shared" si="3"/>
+        <v>@500,@620,</v>
+      </c>
+      <c r="D45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:72" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@600,</v>
+      </c>
+      <c r="D52" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" t="s">
+        <v>17</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@600,</v>
+      </c>
+      <c r="D55" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D57" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>10</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>16</v>
+      </c>
+      <c r="B59" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@600,</v>
+      </c>
+      <c r="D59" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>16</v>
+      </c>
+      <c r="B60" t="s">
+        <v>10</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@600,</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D62" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D63" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>18</v>
+      </c>
+      <c r="B64" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D64" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="3"/>
+        <v>@520,@620,</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@600,</v>
+      </c>
+      <c r="D66" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>16</v>
+      </c>
+      <c r="B67" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D68" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D69" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>18</v>
+      </c>
+      <c r="B70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D70" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D71" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="3"/>
+        <v>@34860,@9340,</v>
+      </c>
+      <c r="D73" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" t="s">
+        <v>10</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="3"/>
+        <v>@4560,@620,</v>
+      </c>
+      <c r="D74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@600,</v>
+      </c>
+      <c r="D75" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@600,</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" t="s">
+        <v>10</v>
+      </c>
+      <c r="C77" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@600,</v>
+      </c>
+      <c r="D78" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>18</v>
+      </c>
+      <c r="B79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C79" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D79" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>7</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D80" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" t="s">
+        <v>10</v>
+      </c>
+      <c r="C81" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D81" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>7</v>
+      </c>
+      <c r="B82" t="s">
+        <v>10</v>
+      </c>
+      <c r="C82" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>7</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@600,</v>
+      </c>
+      <c r="D84" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>10</v>
+      </c>
+      <c r="C85" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D85" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>9</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+      <c r="C86" t="str">
+        <f t="shared" si="3"/>
+        <v>@520,@620,</v>
+      </c>
+      <c r="D86" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>10</v>
+      </c>
+      <c r="C87" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D87" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>18</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D88" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" t="str">
+        <f t="shared" si="3"/>
+        <v>@520,@620,</v>
+      </c>
+      <c r="D89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@600,</v>
+      </c>
+      <c r="D90" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" t="s">
+        <v>10</v>
+      </c>
+      <c r="C91" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D91" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@600,</v>
+      </c>
+      <c r="D92" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" t="s">
+        <v>10</v>
+      </c>
+      <c r="C93" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D93" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B94" t="s">
+        <v>10</v>
+      </c>
+      <c r="C94" t="str">
+        <f t="shared" si="3"/>
+        <v>@520,@620,</v>
+      </c>
+      <c r="D94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>18</v>
+      </c>
+      <c r="B95" t="s">
+        <v>10</v>
+      </c>
+      <c r="C95" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D95" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="C96" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D96" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>9</v>
+      </c>
+      <c r="B97" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97" t="str">
+        <f t="shared" si="3"/>
+        <v>@520,@620,</v>
+      </c>
+      <c r="D97" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>10</v>
+      </c>
+      <c r="C98" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D98" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@600,</v>
+      </c>
+      <c r="D99" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>16</v>
+      </c>
+      <c r="B100" t="s">
+        <v>10</v>
+      </c>
+      <c r="C100" t="str">
+        <f t="shared" si="3"/>
+        <v>@1680,@620,</v>
+      </c>
+      <c r="D100" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>7</v>
+      </c>
+      <c r="B101" t="s">
+        <v>10</v>
+      </c>
+      <c r="C101" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D101" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>18</v>
+      </c>
+      <c r="B102" t="s">
+        <v>10</v>
+      </c>
+      <c r="C102" t="str">
+        <f t="shared" si="3"/>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D102" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>7</v>
+      </c>
+      <c r="B103" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" t="str">
+        <f t="shared" si="3"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D103" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104" t="str">
+        <f t="shared" ref="C104:C106" si="4">"@"&amp;A104&amp;"@"&amp;B104</f>
+        <v>@540,@620,</v>
+      </c>
+      <c r="D104" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>7</v>
+      </c>
+      <c r="B105" t="s">
+        <v>10</v>
+      </c>
+      <c r="C105" t="str">
+        <f t="shared" si="4"/>
+        <v>@1660,@620,</v>
+      </c>
+      <c r="D105" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>16</v>
+      </c>
+      <c r="B106">
+        <v>620</v>
+      </c>
+      <c r="C106" t="str">
+        <f t="shared" si="4"/>
+        <v>@1680,@620</v>
+      </c>
+      <c r="D106" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
